--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed3/result_data_KNN.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.175999999999998</v>
+        <v>-8.250999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.188999999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.460000000000001</v>
+        <v>-7.830000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.712000000000001</v>
+        <v>-8.248000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.304</v>
+        <v>-21.699</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.126</v>
+        <v>-21.808</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.302</v>
+        <v>-21.303</v>
       </c>
       <c r="B12" t="n">
-        <v>5.826000000000001</v>
+        <v>6.303999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.428</v>
+        <v>-11.263</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-11.75</v>
+        <v>-12.813</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.48</v>
+        <v>5.394</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.247999999999999</v>
+        <v>4.836999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.694</v>
+        <v>-21.734</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.781999999999999</v>
+        <v>-7.879</v>
       </c>
     </row>
     <row r="21">
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.36</v>
+        <v>-12.808</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.454000000000001</v>
+        <v>-8.280999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.564</v>
+        <v>-12.151</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -796,13 +796,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.878</v>
+        <v>5.525999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.814000000000002</v>
+        <v>-7.669000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>4.966</v>
+        <v>5.659000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>4.994</v>
+        <v>5.119</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.596</v>
+        <v>-12.439</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.42</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="35">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.974</v>
+        <v>-12.776</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.912</v>
+        <v>-21.2</v>
       </c>
       <c r="B37" t="n">
-        <v>6.580000000000001</v>
+        <v>6.423999999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.528</v>
+        <v>-12.356</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.084000000000001</v>
+        <v>-7.476000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.272000000000002</v>
+        <v>-7.922</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.658</v>
+        <v>-12.775</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.157999999999999</v>
+        <v>-7.741</v>
       </c>
     </row>
     <row r="42">
@@ -1090,13 +1090,13 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.604000000000001</v>
+        <v>5.435</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.32</v>
+        <v>-8.057</v>
       </c>
     </row>
     <row r="48">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.742</v>
+        <v>-11.775</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.109</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.208</v>
+        <v>-12.7</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1278,7 +1278,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.717999999999999</v>
+        <v>-8.321</v>
       </c>
     </row>
     <row r="61">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.92</v>
+        <v>5.522</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.942</v>
+        <v>-10.944</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4</v>
+        <v>-21.502</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.31</v>
+        <v>-7.525</v>
       </c>
     </row>
     <row r="73">
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.92</v>
+        <v>6.792</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.66</v>
+        <v>-20.79</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.856</v>
+        <v>-20.425</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.96</v>
+        <v>-21.747</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.316</v>
+        <v>-21.822</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.32</v>
+        <v>-7.944</v>
       </c>
     </row>
     <row r="84">
@@ -1608,10 +1608,10 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.796</v>
+        <v>4.991000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>-11.936</v>
+        <v>-12.819</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>4.624000000000001</v>
+        <v>5.008</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1667,7 +1667,7 @@
         <v>5.44</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.628</v>
+        <v>-13.222</v>
       </c>
       <c r="D88" t="n">
         <v>-8.470000000000001</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.006</v>
+        <v>-13.791</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.488</v>
+        <v>5.587000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,10 +1762,10 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>7.322</v>
+        <v>6.332</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.658</v>
+        <v>-12.248</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>6.608</v>
+        <v>7.208</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.008</v>
+        <v>5.285000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.43</v>
+        <v>6.043000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.82</v>
+        <v>-12.753</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
